--- a/tests/files/especialidades_error.xlsx
+++ b/tests/files/especialidades_error.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">modalidad_id</t>
   </si>
   <si>
-    <t xml:space="preserve">modalidad_estudiante</t>
+    <t xml:space="preserve">modalidad_especialidad</t>
   </si>
   <si>
     <t xml:space="preserve">tipo_plan_especialidad_id</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">1999</t>
   </si>
   <si>
-    <t xml:space="preserve">Normal</t>
+    <t xml:space="preserve">Semanal</t>
   </si>
   <si>
     <t xml:space="preserve">LF</t>
@@ -284,12 +284,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -302,7 +302,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
